--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>B9</t>
+  </si>
+  <si>
+    <t>13000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13222222222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -114,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,83 +433,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,75 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>13000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13111111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13222222222</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>var1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +400,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -457,7 +411,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -467,85 +421,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>